--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arash\Desktop\Web dev minor\project-2-1819\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A71315-907A-497F-8568-9CC1A1C7DC64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE19FC62-C246-4DBC-8F22-E56D9330B97F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{49D6E8A7-ABD9-443A-B770-62FFA2878FBB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="2" xr2:uid="{49D6E8A7-ABD9-443A-B770-62FFA2878FBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
+    <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Gzip</t>
   </si>
@@ -57,13 +58,13 @@
     <t>logo__text.svg</t>
   </si>
   <si>
-    <t>Currently</t>
-  </si>
-  <si>
     <t>Minified + Gzip</t>
   </si>
   <si>
     <t>Minified + Brotli</t>
+  </si>
+  <si>
+    <t>Original</t>
   </si>
 </sst>
 </file>
@@ -698,7 +699,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Currently</c:v>
+                  <c:v>Original</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Minified + Gzip</c:v>
@@ -820,7 +821,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Currently</c:v>
+                  <c:v>Original</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Minified + Gzip</c:v>
@@ -942,7 +943,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Currently</c:v>
+                  <c:v>Original</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Minified + Gzip</c:v>
@@ -1180,6 +1181,474 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gzip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>homepage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>styles.min.css</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>scripts.min.js</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>0\ "KB"</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-233B-4C3C-9550-669521B1FA7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brotli</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>homepage</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>styles.min.css</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>scripts.min.js</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>0\ "KB"</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-233B-4C3C-9550-669521B1FA7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="390744496"/>
+        <c:axId val="331330240"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="390744496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="331330240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="331330240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0\ &quot;KB&quot;" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390744496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1260,6 +1729,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1764,6 +2273,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2317,10 +3329,10 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>573538</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>236709</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2332,6 +3344,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C9087D3-85F6-4EAB-9151-F43932B3CB91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2648,7 +3703,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V34" sqref="V34"/>
+      <selection activeCell="V34" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2708,8 +3763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B903364-F500-4FC1-966C-EF523BA1AC69}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2722,13 +3777,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2777,4 +3832,66 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4EFD68-E1DB-4174-BEA6-6E4911927487}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>144</v>
+      </c>
+      <c r="C2" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arash\Desktop\Web dev minor\project-2-1819\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE19FC62-C246-4DBC-8F22-E56D9330B97F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E62823-8B0E-4DF0-8C20-6806EE72D8E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="2" xr2:uid="{49D6E8A7-ABD9-443A-B770-62FFA2878FBB}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Gzip</t>
   </si>
@@ -66,13 +66,23 @@
   <si>
     <t>Original</t>
   </si>
+  <si>
+    <t>Total size of 7 images</t>
+  </si>
+  <si>
+    <t>Original (jpeg and png)</t>
+  </si>
+  <si>
+    <t>WebP version</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0\ &quot;KB&quot;"/>
+    <numFmt numFmtId="175" formatCode="0.0#\ &quot;MB&quot;"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -103,9 +113,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1207,11 +1218,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$B$1</c:f>
+              <c:f>Blad3!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Gzip</c:v>
+                  <c:v>Original (jpeg and png)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1285,35 +1296,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$A$2:$A$4</c:f>
+              <c:f>Blad3!$A$2</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>homepage</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>styles.min.css</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>scripts.min.js</c:v>
+                  <c:v>Total size of 7 images</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$B$2:$B$4</c:f>
+              <c:f>Blad3!$B$2</c:f>
               <c:numCache>
-                <c:formatCode>0\ "KB"</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>0.0#\ "MB"</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>4.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1329,11 +1328,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$C$1</c:f>
+              <c:f>Blad3!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Brotli</c:v>
+                  <c:v>WebP version</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1407,35 +1406,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$A$2:$A$4</c:f>
+              <c:f>Blad3!$A$2</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>homepage</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>styles.min.css</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>scripts.min.js</c:v>
+                  <c:v>Total size of 7 images</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$C$2:$C$4</c:f>
+              <c:f>Blad3!$C$2</c:f>
               <c:numCache>
-                <c:formatCode>0\ "KB"</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>0.0#\ "MB"</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>1.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1531,7 +1518,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0\ &quot;KB&quot;" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0#\ &quot;MB&quot;" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3370,10 +3357,10 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>17379</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3839,7 +3826,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3851,47 +3838,34 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
-      <c r="B2" s="1">
-        <v>144</v>
+      <c r="B2" s="2">
+        <v>4.43</v>
       </c>
-      <c r="C2" s="1">
-        <v>123</v>
+      <c r="C2" s="2">
+        <v>1.27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>35</v>
-      </c>
-      <c r="C3" s="1">
-        <v>28</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1">
-        <v>15</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/docs/data.xlsx
+++ b/docs/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arash\Desktop\Web dev minor\project-2-1819\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E62823-8B0E-4DF0-8C20-6806EE72D8E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2646A12-37B1-4A22-8F1D-906D242FDB4E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="2" xr2:uid="{49D6E8A7-ABD9-443A-B770-62FFA2878FBB}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{49D6E8A7-ABD9-443A-B770-62FFA2878FBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>styles.min.css</t>
   </si>
   <si>
-    <t>homepage</t>
-  </si>
-  <si>
     <t>icons.svg</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   <si>
     <t>WebP version</t>
   </si>
+  <si>
+    <t>Home page</t>
+  </si>
 </sst>
 </file>
 
@@ -82,7 +82,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0\ &quot;KB&quot;"/>
-    <numFmt numFmtId="175" formatCode="0.0#\ &quot;MB&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.0#\ &quot;MB&quot;"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -116,7 +116,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -242,7 +242,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>homepage</c:v>
+                  <c:v>Home page</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>styles.min.css</c:v>
@@ -260,13 +260,13 @@
                 <c:formatCode>0\ "KB"</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>144</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -364,7 +364,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>homepage</c:v>
+                  <c:v>Home page</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>styles.min.css</c:v>
@@ -382,13 +382,13 @@
                 <c:formatCode>0\ "KB"</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>123</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3272,13 +3272,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>464576</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>15239</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3687,18 +3687,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2013E99C-6164-4A72-A8F6-EFCCF93DDC09}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V34" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3706,18 +3706,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1">
-        <v>123</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3728,16 +3728,20 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="C4" s="1">
-        <v>15</v>
+        <v>123</v>
       </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3750,32 +3754,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B903364-F500-4FC1-966C-EF523BA1AC69}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>68</v>
@@ -3787,9 +3791,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>73</v>
@@ -3801,9 +3805,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -3825,28 +3829,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4EFD68-E1DB-4174-BEA6-6E4911927487}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>4.43</v>
@@ -3855,11 +3859,11 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
